--- a/DOCS/充电桩参数配置表.xlsx
+++ b/DOCS/充电桩参数配置表.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="5" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>一体式充电桩参数配置表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GB/T 27930</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不需要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +269,26 @@
   </si>
   <si>
     <t>配置实际模块个数，默认限流值9.5根据需要配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州奥能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块最高输出电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块最低输出电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,70 +551,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -605,21 +701,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,79 +710,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,6 +729,177 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:axId val="68053632"/>
+        <c:axId val="68063616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68053632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68063616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68063616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68053632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:axId val="66054400"/>
+        <c:axId val="67162112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="66054400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67162112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67162112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66054400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1000,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1016,796 +1205,807 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="33" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="46"/>
+      <c r="B5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="21"/>
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="46"/>
+      <c r="B6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="46"/>
+      <c r="B7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="46"/>
+      <c r="B8" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="46"/>
+      <c r="B9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="14">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="33" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="46"/>
+      <c r="B10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="14">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="46"/>
+      <c r="B11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="46"/>
+      <c r="B12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="46"/>
+      <c r="B13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="46"/>
+      <c r="B14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="22">
+        <v>750.1</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="46"/>
+      <c r="B15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="22">
+        <v>199.9</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="46"/>
+      <c r="B16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="22">
+        <v>750.1</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="46"/>
+      <c r="B17" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="46"/>
+      <c r="B18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="46"/>
+      <c r="B19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="22">
+        <v>750.1</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="46"/>
+      <c r="B20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="22">
+        <v>199.9</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="46"/>
+      <c r="B21" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="22">
+        <v>750.1</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="46"/>
+      <c r="B22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="46"/>
+      <c r="B23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="46"/>
+      <c r="B24" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="46"/>
+      <c r="B25" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="22">
+        <v>150.1</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="46"/>
+      <c r="B26" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="22">
+        <v>150.1</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="46"/>
+      <c r="B27" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="22">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="46"/>
+      <c r="B28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="22">
+        <v>20</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="46"/>
+      <c r="B29" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="46"/>
+      <c r="B30" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="46"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="46"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="46"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="46"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="46"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="46"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="46"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="46"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="21"/>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="33" t="s">
+      <c r="G38" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A39" s="46"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="56"/>
+      <c r="I39" s="57"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="46"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="57"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="47"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="9"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="56"/>
+      <c r="I42" s="57"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="21"/>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="41" t="s">
+      <c r="E43" s="7"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="48"/>
+      <c r="B44" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="33" t="s">
+      <c r="E44" s="7"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="48"/>
+      <c r="B45" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="48"/>
+      <c r="B46" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="21"/>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="41">
-        <v>150</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="21"/>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="41" t="s">
+      <c r="E46" s="7"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="48"/>
+      <c r="B47" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="21"/>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="21"/>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="21"/>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="21"/>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="41">
-        <v>750.1</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="21"/>
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="41">
-        <v>199.9</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="21"/>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="41">
-        <v>750.1</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="21"/>
-      <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="41">
-        <v>199.9</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="21"/>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="41">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="21"/>
-      <c r="B19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="41">
-        <v>750.1</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="21"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="41">
-        <v>199.9</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="21"/>
-      <c r="B21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="41">
-        <v>750.1</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="38"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="21"/>
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="41">
-        <v>199.9</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="21"/>
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="41">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="21"/>
-      <c r="B24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="41">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="21"/>
-      <c r="B25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="41">
-        <v>150.1</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="21"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="41">
-        <v>150.1</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="21"/>
-      <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="41">
-        <v>1</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="21"/>
-      <c r="B28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="41">
-        <v>20</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="21"/>
-      <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="21"/>
-      <c r="B30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="41" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="48"/>
+      <c r="B48" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="21"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="21"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="21"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="38"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="21"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="21"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="39"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="21"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="21"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="21"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="56"/>
-      <c r="I38" s="57"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="55"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="21"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="22"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="53"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="53"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="14"/>
-      <c r="B44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="14"/>
-      <c r="B45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="14"/>
-      <c r="B46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="14"/>
-      <c r="B47" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="14"/>
-      <c r="B48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="14"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="14"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="53"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="14"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="14"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="53"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="14"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="46"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="27"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="15"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="49"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="A4:A41"/>
+  <mergeCells count="94">
     <mergeCell ref="A43:A54"/>
     <mergeCell ref="F4:F15"/>
     <mergeCell ref="F17:I17"/>
@@ -1821,6 +2021,7 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G20:H20"/>
@@ -1844,6 +2045,17 @@
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -1860,17 +2072,6 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
@@ -1880,11 +2081,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -1892,12 +2088,18 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A4:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCS/充电桩参数配置表.xlsx
+++ b/DOCS/充电桩参数配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15990" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Chart2" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>一体式充电桩参数配置表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要数卡扣费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通信协议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +285,64 @@
   </si>
   <si>
     <t>不需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用辅助电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否统计电能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度量设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电指示灯</t>
+  </si>
+  <si>
+    <t>系统故障灯</t>
+  </si>
+  <si>
+    <t>一枪开关</t>
+  </si>
+  <si>
+    <t>二枪开关</t>
+  </si>
+  <si>
+    <t>1枪12V辅助电源</t>
+  </si>
+  <si>
+    <t>1枪24V辅助电源</t>
+  </si>
+  <si>
+    <t>2枪12V辅助电源</t>
+  </si>
+  <si>
+    <t>2枪24V辅助电源</t>
+  </si>
+  <si>
+    <t>1枪电子锁</t>
+  </si>
+  <si>
+    <t>2枪电子锁</t>
+  </si>
+  <si>
+    <t>交流电能表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要刷卡扣费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +707,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,6 +728,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -681,15 +750,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -741,38 +801,37 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:axId val="68053632"/>
-        <c:axId val="68063616"/>
+        <c:axId val="92835840"/>
+        <c:axId val="92837376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68053632"/>
+        <c:axId val="92835840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68063616"/>
+        <c:crossAx val="92837376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68063616"/>
+        <c:axId val="92837376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68053632"/>
+        <c:crossAx val="92835840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -781,6 +840,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
   <c:lang val="zh-CN"/>
   <c:chart>
     <c:plotArea>
@@ -788,38 +848,37 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:axId val="66054400"/>
-        <c:axId val="67162112"/>
+        <c:axId val="92852608"/>
+        <c:axId val="92854144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66054400"/>
+        <c:axId val="92852608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67162112"/>
+        <c:crossAx val="92854144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67162112"/>
+        <c:axId val="92854144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66054400"/>
+        <c:crossAx val="92852608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1187,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1205,37 +1264,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1243,268 +1302,268 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="21" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="43"/>
+      <c r="B5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="35" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="14" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="46"/>
-      <c r="B5" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="22" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="43"/>
+      <c r="B6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="35" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="46"/>
-      <c r="B6" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="22" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="35" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="43"/>
+      <c r="B7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="14" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="43"/>
+      <c r="B8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="46"/>
-      <c r="B7" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="35" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="46"/>
-      <c r="B8" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="35"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="46"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="22">
         <v>100</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="35"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="37"/>
       <c r="I9" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="46"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" s="35"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="37"/>
       <c r="I10" s="14">
         <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="46"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="35"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="37"/>
       <c r="I11" s="14">
         <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="46"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="46"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="22">
         <v>750.1</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="46"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="22">
-        <v>199.9</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="46"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="22">
         <v>750.1</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="46"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="22">
         <v>0</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="F17" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="46"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="22">
         <v>0</v>
       </c>
@@ -1512,366 +1571,404 @@
       <c r="F18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="49"/>
       <c r="I18" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="46"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="22">
         <v>750.1</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="46"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="22">
-        <v>199.9</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="46"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="22">
         <v>750.1</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="46"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="22">
         <v>0</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="46"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="22">
         <v>0</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="46"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="22">
         <v>1</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="46"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="22">
         <v>150.1</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="46"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="22">
         <v>150.1</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="46"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="22">
         <v>1</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="46"/>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="22">
         <v>20</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="46"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="46"/>
-      <c r="B30" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="35"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="37"/>
       <c r="D30" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="46"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="46"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="22" t="s">
+        <v>70</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="46"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="46"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="36">
+        <v>7</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="46"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="36">
+        <v>8</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="46"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="10"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="36">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="46"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="46"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="36">
+        <v>0</v>
+      </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="15"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="43"/>
+      <c r="B39" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="37"/>
+      <c r="D39" s="36">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="43"/>
+      <c r="B40" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="36">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="43"/>
+      <c r="B41" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="36">
+        <v>4</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="54" t="s">
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" customHeight="1">
+      <c r="A42" s="43"/>
+      <c r="B42" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="36">
+        <v>3</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
-    </row>
-    <row r="39" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A39" s="46"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="32" t="s">
+      <c r="G42" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="46"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="57"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="47"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="9"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="57"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="24" t="s">
-        <v>52</v>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A43" s="43"/>
+      <c r="B43" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="36">
+        <v>0</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="34"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="48"/>
-      <c r="B44" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="A44" s="44"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="7"/>
       <c r="F44" s="32"/>
       <c r="G44" s="33"/>
@@ -1879,28 +1976,30 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="48"/>
-      <c r="B45" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="34"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="48"/>
-      <c r="B46" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="22" t="s">
-        <v>52</v>
+      <c r="A46" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="32"/>
@@ -1909,13 +2008,13 @@
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="48"/>
-      <c r="B47" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="35"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="37"/>
       <c r="D47" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="32"/>
@@ -1924,13 +2023,13 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="48"/>
-      <c r="B48" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="35"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="37"/>
       <c r="D48" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="32"/>
@@ -1939,10 +2038,14 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="48"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="22"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="32"/>
       <c r="G49" s="33"/>
@@ -1950,10 +2053,14 @@
       <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="48"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="32"/>
       <c r="G50" s="33"/>
@@ -1961,10 +2068,14 @@
       <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="48"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="22" t="s">
+        <v>55</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="32"/>
       <c r="G51" s="33"/>
@@ -1972,9 +2083,9 @@
       <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="48"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="22"/>
       <c r="E52" s="7"/>
       <c r="F52" s="32"/>
@@ -1983,45 +2094,81 @@
       <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="48"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="22"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="27"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="44"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="22"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="50"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="50"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="49"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="A43:A54"/>
+  <mergeCells count="97">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A46:A57"/>
     <mergeCell ref="F4:F15"/>
     <mergeCell ref="F17:I17"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I43"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="F40:I40"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G45:I45"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G20:H20"/>
@@ -2041,39 +2188,37 @@
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
@@ -2081,6 +2226,18 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A44"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -2090,16 +2247,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
